--- a/Dev/Files/Siebel Service/RunManager_Service v1.0.xlsx
+++ b/Dev/Files/Siebel Service/RunManager_Service v1.0.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="RunManager" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RunManager!$A$1:$F$91</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="172">
   <si>
     <t>Run</t>
   </si>
@@ -531,16 +534,10 @@
     <t>DataBank</t>
   </si>
   <si>
-    <t>login;create_service_request;assign_service_request;delete_service_request;logout</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>click_sitemap;create_service_request;assign_service_request;delete_service_request</t>
-  </si>
-  <si>
-    <t>download_whitepaper;hello_world</t>
+    <t>login;create_service_request;logout</t>
   </si>
 </sst>
 </file>
@@ -683,7 +680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,8 +860,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -979,6 +988,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1024,11 +1048,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1352,1095 +1386,1375 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="31.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="56.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="22.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="E33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="D34" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="D35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="D36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="D37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="D38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="D39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="D40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="D41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="D42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="D43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="D44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="D45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="D46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="D47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="D48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="D49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="D50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="D51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C53" s="1" t="s">
+      <c r="D52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C54" s="1" t="s">
+      <c r="D53" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C55" s="1" t="s">
+      <c r="D54" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C56" s="1" t="s">
+      <c r="D55" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D56" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C57" s="1" t="s">
+      <c r="D56" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D57" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C58" s="1" t="s">
+      <c r="D57" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C59" s="1" t="s">
+      <c r="D58" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C60" s="1" t="s">
+      <c r="D59" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C61" s="1" t="s">
+      <c r="D60" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C62" s="1" t="s">
+      <c r="D61" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C63" s="1" t="s">
+      <c r="D62" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C63" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C64" s="1" t="s">
+      <c r="D63" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D64" t="s">
-        <v>171</v>
+      <c r="D64" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
-        <v>171</v>
+      <c r="D65" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="s">
-        <v>171</v>
+      <c r="D66" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D67" t="s">
-        <v>171</v>
+      <c r="D67" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D68" t="s">
-        <v>171</v>
+      <c r="D68" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D69" t="s">
-        <v>171</v>
+      <c r="D69" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D70" t="s">
-        <v>171</v>
+      <c r="D70" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D71" t="s">
-        <v>171</v>
+      <c r="D71" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D72" t="s">
-        <v>171</v>
+      <c r="D72" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D73" t="s">
-        <v>171</v>
+      <c r="D73" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D74" t="s">
-        <v>171</v>
+      <c r="D74" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D75" t="s">
-        <v>171</v>
+      <c r="D75" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D76" t="s">
-        <v>171</v>
+      <c r="D76" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D77" t="s">
-        <v>171</v>
+      <c r="D77" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D78" t="s">
-        <v>171</v>
+      <c r="D78" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D79" t="s">
-        <v>171</v>
+      <c r="D79" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D80" t="s">
-        <v>171</v>
+      <c r="D80" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D81" t="s">
-        <v>171</v>
+      <c r="D81" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D82" t="s">
-        <v>171</v>
+      <c r="D82" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D83" t="s">
-        <v>171</v>
+      <c r="D83" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D84" t="s">
-        <v>171</v>
+      <c r="D84" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D85" t="s">
-        <v>171</v>
+      <c r="D85" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D86" t="s">
-        <v>171</v>
+      <c r="D86" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D87" t="s">
-        <v>171</v>
+      <c r="D87" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D88" t="s">
-        <v>171</v>
+      <c r="D88" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D89" t="s">
-        <v>171</v>
+      <c r="D89" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D90" t="s">
-        <v>171</v>
+      <c r="D90" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D91" t="s">
-        <v>171</v>
+      <c r="D91" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
